--- a/biology/Histoire de la zoologie et de la botanique/H.C.Bold/H.C.Bold.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/H.C.Bold/H.C.Bold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harold Charles Bold est un botaniste américain, né le 16 juin 1909 à New York et mort le 18 décembre 1987 à Austin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harold Charles Bold est un botaniste américain, né le 16 juin 1909 à New York et mort le 18 décembre 1987 à Austin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Edward Bold et de Louise née Krüsi. Il obtient son Bachelor of Arts à l’université Columbia en 1929, son Master of Sciences à l’université du Vermont en 1931 et son Ph. D. en botanique en 1933 à nouveau à Columbia.
 Il travaille à l’université de Vanderbilt de 1932 à 1939 puis de 1945 à 1957, entre les deux, il enseigne à l’université Columbia. À partir de 1957, il enseigne la botanique à l’université d’Austin au Texas. Il se marie avec Mary E. Douthit le 8 juin 1943.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Morphology of Plants (1957)
 The Plant Kingdom (1960)
